--- a/EXCEL_OUPUT/【MHIAA 31 March 2023 GPFS_final 2 director signed】.xlsx
+++ b/EXCEL_OUPUT/【MHIAA 31 March 2023 GPFS_final 2 director signed】.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="902">
   <si>
     <t>KPM 6</t>
   </si>
@@ -545,6 +545,9 @@
     <t>Warranties</t>
   </si>
   <si>
+    <t>Make Good</t>
+  </si>
+  <si>
     <t>Provisions made during the year</t>
   </si>
   <si>
@@ -554,34 +557,34 @@
     <t>Provisions reversed during the year</t>
   </si>
   <si>
-    <t>Make Good</t>
+    <t>1928661</t>
+  </si>
+  <si>
+    <t>169405</t>
+  </si>
+  <si>
+    <t>(192,091)</t>
+  </si>
+  <si>
+    <t>1905975</t>
+  </si>
+  <si>
+    <t>1394667</t>
   </si>
   <si>
     <t>3300642</t>
   </si>
   <si>
-    <t>1928661</t>
-  </si>
-  <si>
-    <t>169405</t>
-  </si>
-  <si>
-    <t>(192,091)</t>
-  </si>
-  <si>
-    <t>1905975</t>
-  </si>
-  <si>
-    <t>1394667</t>
+    <t>1043358</t>
+  </si>
+  <si>
+    <t>351309</t>
   </si>
   <si>
     <t>2972019</t>
   </si>
   <si>
-    <t>1043358</t>
-  </si>
-  <si>
-    <t>351309</t>
+    <t>520714</t>
   </si>
   <si>
     <t>4,500,000 Ordinary shares</t>
@@ -1313,7 +1316,7 @@
     <t>investments that will enhance the</t>
   </si>
   <si>
-    <t>performance generating The recoverable amount is sensitive to the discount rate used for the discounted cash flow model as well as the expected future cash-inflows and the growth rate used for extrapolation purposes.</t>
+    <t>performance The recoverable amount is generating sensitive to the discount rate used for the discounted cash flow model as well as the expected future cash-inflows and the growth rate used for extrapolation purposes.</t>
   </si>
   <si>
     <t>Taxes</t>
@@ -1373,7 +1376,7 @@
     <t>the Company is not yet</t>
   </si>
   <si>
-    <t>performance asset's generating of the cash unit</t>
+    <t>asset's performance of the cash generating unit</t>
   </si>
   <si>
     <t>for unused tax losses to the extent that it is</t>
@@ -2024,7 +2027,7 @@
     <t>of property,</t>
   </si>
   <si>
-    <t>Depreciation of property, plant and equipment is calculated on a declining balance basis over the estimated useful life of the specific asset as follows: Plant and equipment 2-20years</t>
+    <t>plant Depreciation and of property, equipment is calculated on a declining balance basis over the estimated useful life of the specific asset as follows: Plant and equipment 2-20years</t>
   </si>
   <si>
     <t>Leaseholdimprovements</t>
@@ -3410,13 +3413,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -3426,112 +3429,133 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
+    <row r="3" spans="1:4">
       <c r="C3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>163</v>
       </c>
       <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
         <v>163</v>
       </c>
-      <c r="B7" t="s">
-        <v>167</v>
-      </c>
       <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>111</v>
-      </c>
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>135</v>
       </c>
       <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
         <v>169</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
         <v>170</v>
       </c>
-      <c r="C10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>138</v>
       </c>
       <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
         <v>172</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3569,7 +3593,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>111</v>
@@ -3577,13 +3601,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3615,13 +3639,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3640,111 +3664,111 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3789,34 +3813,34 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3861,43 +3885,43 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3942,13 +3966,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3980,10 +4004,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
         <v>154</v>
@@ -3991,7 +4015,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3999,38 +4023,38 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4038,18 +4062,18 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4057,13 +4081,13 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4071,24 +4095,24 @@
         <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4096,46 +4120,46 @@
         <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4403,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4387,23 +4411,23 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4411,12 +4435,12 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4424,23 +4448,23 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4448,28 +4472,28 @@
         <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4522,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4519,18 +4543,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4551,37 +4575,37 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
@@ -4592,15 +4616,15 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4621,37 +4645,37 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4696,50 +4720,50 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4787,85 +4811,85 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4913,81 +4937,81 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5029,37 +5053,37 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5077,37 +5101,37 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5125,37 +5149,37 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5176,75 +5200,75 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5282,13 +5306,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5296,475 +5320,475 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F19" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C24" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F29" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D32" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E32" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5772,29 +5796,29 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F35" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -5826,110 +5850,110 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -5961,477 +5985,477 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C17" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B23" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C23" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D23" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C33" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D33" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B34" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B39" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C39" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D39" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6460,340 +6484,340 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B22" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B23" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C23" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B26" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C26" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B30" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C30" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B34" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C34" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B35" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C35" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -7033,881 +7057,881 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D26" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E26" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F26" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G28" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C29" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D29" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E29" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H29" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I29" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C30" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D30" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E30" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F30" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I30" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D31" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E31" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F31" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G31" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H31" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I31" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I34" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7939,501 +7963,501 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D15" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B17" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C17" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D17" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B22" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C22" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B23" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C23" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D23" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B29" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C29" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B30" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C30" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D30" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B31" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C31" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D31" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B32" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C32" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D32" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B34" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C34" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D34" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B37" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C37" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D37" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B39" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C39" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D39" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -8471,591 +8495,591 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E14" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C15" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D15" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E15" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F15" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D16" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E16" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F16" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C17" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D17" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E17" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F17" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C18" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D18" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E18" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B21" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C22" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F22" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C23" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D23" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E23" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F23" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C24" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D24" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E24" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F24" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C25" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D25" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E25" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F25" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C26" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E26" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F26" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C27" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D27" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E27" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F27" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D28" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E28" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F28" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C29" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D29" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E29" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F29" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C30" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D30" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E30" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F30" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C31" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D31" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E31" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F31" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C39" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D39" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E39" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F39" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -9084,438 +9108,438 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B14" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C14" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B15" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C15" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B16" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C16" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B23" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C23" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B24" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C24" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B25" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C25" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B28" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C28" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B29" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C29" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B30" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C30" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B31" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C31" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B32" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C32" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B33" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C33" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B34" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C34" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B35" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C35" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B36" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C36" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B37" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C37" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B38" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C38" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B39" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C39" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B41" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C41" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B42" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C42" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B43" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C43" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B44" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C44" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B45" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C45" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -9570,121 +9594,121 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -9729,174 +9753,174 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C6" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D8" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C13" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C16" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D16" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D17" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C18" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D18" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D19" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -9928,13 +9952,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9944,112 +9968,112 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C5" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D5" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D13" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -10097,144 +10121,144 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D10" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C12" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D12" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B14" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" t="s">
         <v>269</v>
-      </c>
-      <c r="D14" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B15" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" t="s">
         <v>282</v>
-      </c>
-      <c r="D15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B16" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B17" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C17" t="s">
         <v>158</v>
@@ -10245,95 +10269,95 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C18" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C19" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D19" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C20" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D20" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B24" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B25" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C26" t="s">
         <v>122</v>
@@ -10344,53 +10368,53 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C29" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D29" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B31" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C32" t="s">
         <v>123</v>
@@ -10401,84 +10425,84 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D33" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C34" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D34" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C35" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D35" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B37" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C38" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D38" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C39" t="s">
+        <v>809</v>
+      </c>
+      <c r="D39" t="s">
         <v>808</v>
-      </c>
-      <c r="D39" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C40" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D40" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -10523,206 +10547,206 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D6" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C11" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D11" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D12" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C13" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D13" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D15" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D16" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D18" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C19" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D19" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C21" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D21" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
